--- a/Wplyw rodzaju eksplantatu na efektywnosc regeneracyjna.xlsx
+++ b/Wplyw rodzaju eksplantatu na efektywnosc regeneracyjna.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Ogrodnictwo\Zaoczne\Praca inżynierska\InzynierkaOgro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Ogrodnictwo\Zaoczne\Praca inżynierska\InzynierkaOgro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1670C6EC-A80B-419B-8995-B49FA31C985C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7CFEEA-E0CA-48A3-8A62-0E421DF9B9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rodzaj eksplant na efekt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -316,7 +316,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$F$1</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -395,7 +395,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$5:$B$9</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$B$5:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -418,7 +418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$9</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -451,7 +451,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$1</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -530,7 +530,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$5:$B$9</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$B$5:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -553,7 +553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$G$5:$G$9</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -945,7 +945,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$F$1</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1024,7 +1024,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$2:$B$4</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1041,7 +1041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$F$2:$F$4</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1068,7 +1068,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$1</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1147,7 +1147,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$2:$B$4</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1164,7 +1164,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$G$2:$G$4</c:f>
+              <c:f>'Rodzaj eksplant na efekt'!$G$2:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2960,7 +2960,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wplyw rodzaju eksplantatu na efektywnosc regeneracyjna.xlsx
+++ b/Wplyw rodzaju eksplantatu na efektywnosc regeneracyjna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Ogrodnictwo\Zaoczne\Praca inżynierska\InzynierkaOgro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repozytoria\InzynierkaOgro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7CFEEA-E0CA-48A3-8A62-0E421DF9B9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EBE739-3C5F-4FE4-9A4B-DCE066C9CADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rodzaj eksplant na efekt" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Gatunek</t>
   </si>
@@ -78,6 +78,12 @@
   <si>
     <t>Efektywność regeneracyjna dla wszystkich eksplantatów
 [c/a]</t>
+  </si>
+  <si>
+    <t>Efektywność mikrorozmnażania - śnieżyca karpacka</t>
+  </si>
+  <si>
+    <t>Efektywność mikrorozmnażania - szachownica kostkowata</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +203,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,6 +1439,559 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" b="1" i="0" cap="none" baseline="0"/>
+              <a:t>Efektywność mikrorozmnażania</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" b="0" i="0" cap="none" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rodzaj eksplant na efekt'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Efektywność mikrorozmnażania - śnieżyca karpacka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rodzaj eksplant na efekt'!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Łuska</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Piętka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rodzaj eksplant na efekt'!$F$3:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.3478260869565216E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2758620689655173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-884C-44BF-8858-BDB395CB6193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rodzaj eksplant na efekt'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Efektywność mikrorozmnażania - szachownica kostkowata</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rodzaj eksplant na efekt'!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Łuska</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Piętka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rodzaj eksplant na efekt'!$F$8:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.2470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2222222222222223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-884C-44BF-8858-BDB395CB6193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="657872680"/>
+        <c:axId val="657873336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="657872680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657873336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="657873336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657872680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cmpd="thinThick">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="850900"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1510,6 +2072,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
@@ -2035,6 +2637,530 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2691,6 +3817,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B656D4E-F2BF-4175-B6D9-02C53A0DE71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2957,10 +4121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,6 +4347,16 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
